--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\IKP\HYDRA\VMM3Adapter_FCI_CARD\KiCAD\Git\HYDRA_VMM3_Adapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187BFD04-F1F4-447D-BFA9-A4E0FD3B289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7566C1-D3DC-4713-B6C2-BFCA4BF5ECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="3828" windowWidth="20688" windowHeight="12144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33670" yWindow="3020" windowWidth="20690" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -499,8 +499,15 @@
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1">
+        <f>(45-I1)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -518,16 +525,32 @@
         <f>SUM(B2:B16)</f>
         <v>1.6699999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <f>SUM(I1+1)</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J43" si="0">(45-I2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I43" si="1">SUM(I2+1)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -537,16 +560,32 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -557,16 +596,32 @@
         <v>20</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -576,16 +631,32 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -595,16 +666,32 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -615,16 +702,32 @@
         <v>19</v>
       </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -634,16 +737,32 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -652,6 +771,284 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <f>SUM(I24+1)</f>
+        <v>26</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J27" s="1">
+        <f>(45-I27)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
